--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.514897</v>
+        <v>0.1543183333333333</v>
       </c>
       <c r="H2">
-        <v>1.544691</v>
+        <v>0.462955</v>
       </c>
       <c r="I2">
-        <v>0.2886981231148517</v>
+        <v>0.3481424830762243</v>
       </c>
       <c r="J2">
-        <v>0.3552234618564311</v>
+        <v>0.3755745713734061</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N2">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O2">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P2">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q2">
-        <v>22.83841433674667</v>
+        <v>7.125423942657778</v>
       </c>
       <c r="R2">
-        <v>205.54572903072</v>
+        <v>64.12881548391999</v>
       </c>
       <c r="S2">
-        <v>0.0391964124904866</v>
+        <v>0.04018735262759784</v>
       </c>
       <c r="T2">
-        <v>0.04983916651583328</v>
+        <v>0.0446636336929207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.514897</v>
+        <v>0.1543183333333333</v>
       </c>
       <c r="H3">
-        <v>1.544691</v>
+        <v>0.462955</v>
       </c>
       <c r="I3">
-        <v>0.2886981231148517</v>
+        <v>0.3481424830762243</v>
       </c>
       <c r="J3">
-        <v>0.3552234618564311</v>
+        <v>0.3755745713734061</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>252.039825</v>
       </c>
       <c r="O3">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P3">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q3">
-        <v>43.25818325767501</v>
+        <v>12.964788575875</v>
       </c>
       <c r="R3">
-        <v>389.323649319075</v>
+        <v>116.683097182875</v>
       </c>
       <c r="S3">
-        <v>0.07424182649268916</v>
+        <v>0.07312133768234434</v>
       </c>
       <c r="T3">
-        <v>0.09440024017266389</v>
+        <v>0.08126598115691307</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.514897</v>
+        <v>0.1543183333333333</v>
       </c>
       <c r="H4">
-        <v>1.544691</v>
+        <v>0.462955</v>
       </c>
       <c r="I4">
-        <v>0.2886981231148517</v>
+        <v>0.3481424830762243</v>
       </c>
       <c r="J4">
-        <v>0.3552234618564311</v>
+        <v>0.3755745713734061</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N4">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O4">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P4">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q4">
-        <v>49.07927645947766</v>
+        <v>19.76680393516556</v>
       </c>
       <c r="R4">
-        <v>441.7134881352989</v>
+        <v>177.90123541649</v>
       </c>
       <c r="S4">
-        <v>0.08423227359287637</v>
+        <v>0.1114846676430575</v>
       </c>
       <c r="T4">
-        <v>0.107103330199454</v>
+        <v>0.1239024228375544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.514897</v>
+        <v>0.1543183333333333</v>
       </c>
       <c r="H5">
-        <v>1.544691</v>
+        <v>0.462955</v>
       </c>
       <c r="I5">
-        <v>0.2886981231148517</v>
+        <v>0.3481424830762243</v>
       </c>
       <c r="J5">
-        <v>0.3552234618564311</v>
+        <v>0.3755745713734061</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N5">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O5">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P5">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q5">
-        <v>16.308436175297</v>
+        <v>5.430200040310832</v>
       </c>
       <c r="R5">
-        <v>97.850617051782</v>
+        <v>32.581200241865</v>
       </c>
       <c r="S5">
-        <v>0.02798934207849972</v>
+        <v>0.03062629895632141</v>
       </c>
       <c r="T5">
-        <v>0.02372607409513205</v>
+        <v>0.02269174600992343</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.514897</v>
+        <v>0.1543183333333333</v>
       </c>
       <c r="H6">
-        <v>1.544691</v>
+        <v>0.462955</v>
       </c>
       <c r="I6">
-        <v>0.2886981231148517</v>
+        <v>0.3481424830762243</v>
       </c>
       <c r="J6">
-        <v>0.3552234618564311</v>
+        <v>0.3755745713734061</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N6">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O6">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P6">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q6">
-        <v>36.73025164016801</v>
+        <v>16.44023311818833</v>
       </c>
       <c r="R6">
-        <v>330.572264761512</v>
+        <v>147.962098063695</v>
       </c>
       <c r="S6">
-        <v>0.06303826846029983</v>
+        <v>0.09272282616690318</v>
       </c>
       <c r="T6">
-        <v>0.08015465087334785</v>
+        <v>0.1030507876760946</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.375977</v>
       </c>
       <c r="I7">
-        <v>0.07026897562965835</v>
+        <v>0.2827349663780488</v>
       </c>
       <c r="J7">
-        <v>0.08646120908220181</v>
+        <v>0.3050132315695027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N7">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O7">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P7">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q7">
-        <v>5.558858378204445</v>
+        <v>5.786729849960889</v>
       </c>
       <c r="R7">
-        <v>50.02972540384</v>
+        <v>52.080568649648</v>
       </c>
       <c r="S7">
-        <v>0.009540386769221599</v>
+        <v>0.03263712516090409</v>
       </c>
       <c r="T7">
-        <v>0.01213082766011031</v>
+        <v>0.03627242173637448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.375977</v>
       </c>
       <c r="I8">
-        <v>0.07026897562965835</v>
+        <v>0.2827349663780488</v>
       </c>
       <c r="J8">
-        <v>0.08646120908220181</v>
+        <v>0.3050132315695027</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>252.039825</v>
       </c>
       <c r="O8">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P8">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q8">
         <v>10.529019698225</v>
@@ -948,10 +948,10 @@
         <v>94.76117728402501</v>
       </c>
       <c r="S8">
-        <v>0.01807042262772411</v>
+        <v>0.05938361434220341</v>
       </c>
       <c r="T8">
-        <v>0.02297697021565974</v>
+        <v>0.06599807712938126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.375977</v>
       </c>
       <c r="I9">
-        <v>0.07026897562965835</v>
+        <v>0.2827349663780488</v>
       </c>
       <c r="J9">
-        <v>0.08646120908220181</v>
+        <v>0.3050132315695027</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N9">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O9">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P9">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q9">
-        <v>11.94587080872811</v>
+        <v>16.05310158251178</v>
       </c>
       <c r="R9">
-        <v>107.512837278553</v>
+        <v>144.477914242606</v>
       </c>
       <c r="S9">
-        <v>0.0205020923463844</v>
+        <v>0.09053940639248705</v>
       </c>
       <c r="T9">
-        <v>0.02606889583638419</v>
+        <v>0.1006241669950539</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.375977</v>
       </c>
       <c r="I10">
-        <v>0.07026897562965835</v>
+        <v>0.2827349663780488</v>
       </c>
       <c r="J10">
-        <v>0.08646120908220181</v>
+        <v>0.3050132315695027</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N10">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O10">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P10">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q10">
-        <v>3.969465030792333</v>
+        <v>4.409997344355166</v>
       </c>
       <c r="R10">
-        <v>23.816790184754</v>
+        <v>26.459984066131</v>
       </c>
       <c r="S10">
-        <v>0.006812591558213318</v>
+        <v>0.02487236125044735</v>
       </c>
       <c r="T10">
-        <v>0.005774914309765167</v>
+        <v>0.01842851808398869</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.375977</v>
       </c>
       <c r="I11">
-        <v>0.07026897562965835</v>
+        <v>0.2827349663780488</v>
       </c>
       <c r="J11">
-        <v>0.08646120908220181</v>
+        <v>0.3050132315695027</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N11">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O11">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P11">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q11">
-        <v>8.940124478562666</v>
+        <v>13.35151262450367</v>
       </c>
       <c r="R11">
-        <v>80.46112030706399</v>
+        <v>120.163613620533</v>
       </c>
       <c r="S11">
-        <v>0.01534348232811491</v>
+        <v>0.0753024592320069</v>
       </c>
       <c r="T11">
-        <v>0.01950960106028241</v>
+        <v>0.08369004762470438</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.01159033333333333</v>
+        <v>0.05668900000000001</v>
       </c>
       <c r="H12">
-        <v>0.034771</v>
+        <v>0.170067</v>
       </c>
       <c r="I12">
-        <v>0.006498595796069574</v>
+        <v>0.1278905026823865</v>
       </c>
       <c r="J12">
-        <v>0.007996081411887533</v>
+        <v>0.1379677088048753</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N12">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O12">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P12">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q12">
-        <v>0.5140927893688889</v>
+        <v>2.617531884645334</v>
       </c>
       <c r="R12">
-        <v>4.62683510432</v>
+        <v>23.557786961808</v>
       </c>
       <c r="S12">
-        <v>0.0008823113870066631</v>
+        <v>0.01476286571981658</v>
       </c>
       <c r="T12">
-        <v>0.001121879818631713</v>
+        <v>0.01640723221750266</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.01159033333333333</v>
+        <v>0.05668900000000001</v>
       </c>
       <c r="H13">
-        <v>0.034771</v>
+        <v>0.170067</v>
       </c>
       <c r="I13">
-        <v>0.006498595796069574</v>
+        <v>0.1278905026823865</v>
       </c>
       <c r="J13">
-        <v>0.007996081411887533</v>
+        <v>0.1379677088048753</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>252.039825</v>
       </c>
       <c r="O13">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P13">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q13">
-        <v>0.973741861675</v>
+        <v>4.762628546475002</v>
       </c>
       <c r="R13">
-        <v>8.763676755075</v>
+        <v>42.86365691827501</v>
       </c>
       <c r="S13">
-        <v>0.001671183783020225</v>
+        <v>0.02686119932957471</v>
       </c>
       <c r="T13">
-        <v>0.002124949747906666</v>
+        <v>0.02985314256766367</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01159033333333333</v>
+        <v>0.05668900000000001</v>
       </c>
       <c r="H14">
-        <v>0.034771</v>
+        <v>0.170067</v>
       </c>
       <c r="I14">
-        <v>0.006498595796069574</v>
+        <v>0.1278905026823865</v>
       </c>
       <c r="J14">
-        <v>0.007996081411887533</v>
+        <v>0.1379677088048753</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N14">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O14">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P14">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q14">
-        <v>1.104774690713222</v>
+        <v>7.261355952180668</v>
       </c>
       <c r="R14">
-        <v>9.942972216418998</v>
+        <v>65.35220356962601</v>
       </c>
       <c r="S14">
-        <v>0.001896068783399336</v>
+        <v>0.04095400842857701</v>
       </c>
       <c r="T14">
-        <v>0.002410896350380248</v>
+        <v>0.04551568369434257</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01159033333333333</v>
+        <v>0.05668900000000001</v>
       </c>
       <c r="H15">
-        <v>0.034771</v>
+        <v>0.170067</v>
       </c>
       <c r="I15">
-        <v>0.006498595796069574</v>
+        <v>0.1278905026823865</v>
       </c>
       <c r="J15">
-        <v>0.007996081411887533</v>
+        <v>0.1379677088048753</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N15">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O15">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P15">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q15">
-        <v>0.3671029573236667</v>
+        <v>1.9947896237335</v>
       </c>
       <c r="R15">
-        <v>2.202617743942</v>
+        <v>11.968737742401</v>
       </c>
       <c r="S15">
-        <v>0.0006300401914761682</v>
+        <v>0.01125060272511305</v>
       </c>
       <c r="T15">
-        <v>0.0005340740137424485</v>
+        <v>0.008335836460713564</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01159033333333333</v>
+        <v>0.05668900000000001</v>
       </c>
       <c r="H16">
-        <v>0.034771</v>
+        <v>0.170067</v>
       </c>
       <c r="I16">
-        <v>0.006498595796069574</v>
+        <v>0.1278905026823865</v>
       </c>
       <c r="J16">
-        <v>0.007996081411887533</v>
+        <v>0.1379677088048753</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N16">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O16">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P16">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q16">
-        <v>0.8267980973413332</v>
+        <v>6.039336708127001</v>
       </c>
       <c r="R16">
-        <v>7.441182876071998</v>
+        <v>54.35403037314301</v>
       </c>
       <c r="S16">
-        <v>0.001418991651167182</v>
+        <v>0.03406182647930518</v>
       </c>
       <c r="T16">
-        <v>0.001804281481226457</v>
+        <v>0.03785581386465289</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0020355</v>
+        <v>0.09712799999999999</v>
       </c>
       <c r="H17">
-        <v>2.004071</v>
+        <v>0.194256</v>
       </c>
       <c r="I17">
-        <v>0.5618323046054881</v>
+        <v>0.2191209713442614</v>
       </c>
       <c r="J17">
-        <v>0.4608643660292445</v>
+        <v>0.1575911566711934</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N17">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O17">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P17">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q17">
-        <v>44.44559189338668</v>
+        <v>4.484743722624</v>
       </c>
       <c r="R17">
-        <v>266.67355136032</v>
+        <v>26.908462335744</v>
       </c>
       <c r="S17">
-        <v>0.07627971572588496</v>
+        <v>0.02529393042096957</v>
       </c>
       <c r="T17">
-        <v>0.06466097638851558</v>
+        <v>0.01874086860850839</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.0020355</v>
+        <v>0.09712799999999999</v>
       </c>
       <c r="H18">
-        <v>2.004071</v>
+        <v>0.194256</v>
       </c>
       <c r="I18">
-        <v>0.5618323046054881</v>
+        <v>0.2191209713442614</v>
       </c>
       <c r="J18">
-        <v>0.4608643660292445</v>
+        <v>0.1575911566711934</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>252.039825</v>
       </c>
       <c r="O18">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P18">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q18">
-        <v>84.18428402126251</v>
+        <v>8.1600413742</v>
       </c>
       <c r="R18">
-        <v>505.1057041275751</v>
+        <v>48.9602482452</v>
       </c>
       <c r="S18">
-        <v>0.1444812180504354</v>
+        <v>0.04602258936447867</v>
       </c>
       <c r="T18">
-        <v>0.122474193041243</v>
+        <v>0.03409922008751887</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.0020355</v>
+        <v>0.09712799999999999</v>
       </c>
       <c r="H19">
-        <v>2.004071</v>
+        <v>0.194256</v>
       </c>
       <c r="I19">
-        <v>0.5618323046054881</v>
+        <v>0.2191209713442614</v>
       </c>
       <c r="J19">
-        <v>0.4608643660292445</v>
+        <v>0.1575911566711934</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N19">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O19">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P19">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q19">
-        <v>95.51265073735316</v>
+        <v>12.441231648528</v>
       </c>
       <c r="R19">
-        <v>573.0759044241189</v>
+        <v>74.64738989116799</v>
       </c>
       <c r="S19">
-        <v>0.1639235194335462</v>
+        <v>0.07016847943429637</v>
       </c>
       <c r="T19">
-        <v>0.1389550907308646</v>
+        <v>0.05198947856861242</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.0020355</v>
+        <v>0.09712799999999999</v>
       </c>
       <c r="H20">
-        <v>2.004071</v>
+        <v>0.194256</v>
       </c>
       <c r="I20">
-        <v>0.5618323046054881</v>
+        <v>0.2191209713442614</v>
       </c>
       <c r="J20">
-        <v>0.4608643660292445</v>
+        <v>0.1575911566711934</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N20">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O20">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P20">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q20">
-        <v>31.7376718006355</v>
+        <v>3.417769348091999</v>
       </c>
       <c r="R20">
-        <v>126.950687202542</v>
+        <v>13.671077392368</v>
       </c>
       <c r="S20">
-        <v>0.05446975683350361</v>
+        <v>0.01927620070004376</v>
       </c>
       <c r="T20">
-        <v>0.0307820379855294</v>
+        <v>0.009521460644995053</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.0020355</v>
+        <v>0.09712799999999999</v>
       </c>
       <c r="H21">
-        <v>2.004071</v>
+        <v>0.194256</v>
       </c>
       <c r="I21">
-        <v>0.5618323046054881</v>
+        <v>0.2191209713442614</v>
       </c>
       <c r="J21">
-        <v>0.4608643660292445</v>
+        <v>0.1575911566711934</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N21">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O21">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P21">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q21">
-        <v>71.48034668561201</v>
+        <v>10.347487092504</v>
       </c>
       <c r="R21">
-        <v>428.882080113672</v>
+        <v>62.084922555024</v>
       </c>
       <c r="S21">
-        <v>0.1226780945621178</v>
+        <v>0.05835977142447304</v>
       </c>
       <c r="T21">
-        <v>0.1039920678830919</v>
+        <v>0.04324012876155874</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.129665</v>
+        <v>0.009800999999999999</v>
       </c>
       <c r="H22">
-        <v>0.388995</v>
+        <v>0.029403</v>
       </c>
       <c r="I22">
-        <v>0.07270200085393243</v>
+        <v>0.02211107651907901</v>
       </c>
       <c r="J22">
-        <v>0.08945488162023499</v>
+        <v>0.02385333158102247</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>44.35530666666667</v>
+        <v>46.17354133333333</v>
       </c>
       <c r="N22">
-        <v>133.06592</v>
+        <v>138.520624</v>
       </c>
       <c r="O22">
-        <v>0.1357695438667374</v>
+        <v>0.1154336358852217</v>
       </c>
       <c r="P22">
-        <v>0.1403037013810099</v>
+        <v>0.1189208138601986</v>
       </c>
       <c r="Q22">
-        <v>5.751330838933334</v>
+        <v>0.452546878608</v>
       </c>
       <c r="R22">
-        <v>51.7619775504</v>
+        <v>4.072921907472</v>
       </c>
       <c r="S22">
-        <v>0.009870717494137557</v>
+        <v>0.002552361955933643</v>
       </c>
       <c r="T22">
-        <v>0.01255085099791904</v>
+        <v>0.00283665760489237</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.129665</v>
+        <v>0.009800999999999999</v>
       </c>
       <c r="H23">
-        <v>0.388995</v>
+        <v>0.029403</v>
       </c>
       <c r="I23">
-        <v>0.07270200085393243</v>
+        <v>0.02211107651907901</v>
       </c>
       <c r="J23">
-        <v>0.08945488162023499</v>
+        <v>0.02385333158102247</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>252.039825</v>
       </c>
       <c r="O23">
-        <v>0.2571607521783362</v>
+        <v>0.2100327918507284</v>
       </c>
       <c r="P23">
-        <v>0.2657488885427764</v>
+        <v>0.2163777511873036</v>
       </c>
       <c r="Q23">
-        <v>10.893581302875</v>
+        <v>0.8234141082749999</v>
       </c>
       <c r="R23">
-        <v>98.042231725875</v>
+        <v>7.410726974475</v>
       </c>
       <c r="S23">
-        <v>0.0186961012244673</v>
+        <v>0.004644051132127249</v>
       </c>
       <c r="T23">
-        <v>0.02377253536530308</v>
+        <v>0.005161330245826732</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.129665</v>
+        <v>0.009800999999999999</v>
       </c>
       <c r="H24">
-        <v>0.388995</v>
+        <v>0.029403</v>
       </c>
       <c r="I24">
-        <v>0.07270200085393243</v>
+        <v>0.02211107651907901</v>
       </c>
       <c r="J24">
-        <v>0.08945488162023499</v>
+        <v>0.02385333158102247</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>95.31862966666665</v>
+        <v>128.0910926666667</v>
       </c>
       <c r="N24">
-        <v>285.955889</v>
+        <v>384.273278</v>
       </c>
       <c r="O24">
-        <v>0.291765920346377</v>
+        <v>0.3202271284388135</v>
       </c>
       <c r="P24">
-        <v>0.3015097303531754</v>
+        <v>0.3299009897940278</v>
       </c>
       <c r="Q24">
-        <v>12.35949011572833</v>
+        <v>1.255420799226</v>
       </c>
       <c r="R24">
-        <v>111.235411041555</v>
+        <v>11.298787193034</v>
       </c>
       <c r="S24">
-        <v>0.02121196619017068</v>
+        <v>0.007080566540395548</v>
       </c>
       <c r="T24">
-        <v>0.02697151723609228</v>
+        <v>0.007869237698464454</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.129665</v>
+        <v>0.009800999999999999</v>
       </c>
       <c r="H25">
-        <v>0.388995</v>
+        <v>0.029403</v>
       </c>
       <c r="I25">
-        <v>0.07270200085393243</v>
+        <v>0.02211107651907901</v>
       </c>
       <c r="J25">
-        <v>0.08945488162023499</v>
+        <v>0.02385333158102247</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>31.673201</v>
+        <v>35.18830149999999</v>
       </c>
       <c r="N25">
-        <v>63.346402</v>
+        <v>70.37660299999999</v>
       </c>
       <c r="O25">
-        <v>0.09695020451298475</v>
+        <v>0.08797058803540478</v>
       </c>
       <c r="P25">
-        <v>0.0667919679942799</v>
+        <v>0.06041874966919073</v>
       </c>
       <c r="Q25">
-        <v>4.106905607665</v>
+        <v>0.3448805430014999</v>
       </c>
       <c r="R25">
-        <v>24.64143364599</v>
+        <v>2.069283258008999</v>
       </c>
       <c r="S25">
-        <v>0.007048473851291941</v>
+        <v>0.001945124403479212</v>
       </c>
       <c r="T25">
-        <v>0.005974867590110833</v>
+        <v>0.001441188469569998</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.129665</v>
+        <v>0.009800999999999999</v>
       </c>
       <c r="H26">
-        <v>0.388995</v>
+        <v>0.029403</v>
       </c>
       <c r="I26">
-        <v>0.07270200085393243</v>
+        <v>0.02211107651907901</v>
       </c>
       <c r="J26">
-        <v>0.08945488162023499</v>
+        <v>0.02385333158102247</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>71.335144</v>
+        <v>106.534543</v>
       </c>
       <c r="N26">
-        <v>214.005432</v>
+        <v>319.603629</v>
       </c>
       <c r="O26">
-        <v>0.2183535790955647</v>
+        <v>0.2663358557898317</v>
       </c>
       <c r="P26">
-        <v>0.2256457117287584</v>
+        <v>0.2743816954892795</v>
       </c>
       <c r="Q26">
-        <v>9.249671446760001</v>
+        <v>1.044145055943</v>
       </c>
       <c r="R26">
-        <v>83.24704302084</v>
+        <v>9.397305503487001</v>
       </c>
       <c r="S26">
-        <v>0.01587474209386494</v>
+        <v>0.00588897248714336</v>
       </c>
       <c r="T26">
-        <v>0.02018511043080975</v>
+        <v>0.006544917562268921</v>
       </c>
     </row>
   </sheetData>
